--- a/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_246054465312913.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_246054465312913.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24030" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Construccion_Navegacion" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Construccion_NFA50" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:O24"/>
+  <oleSize ref="A1:X34"/>
 </workbook>
 </file>
 
@@ -9305,11 +9305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475890928"/>
-        <c:axId val="475892496"/>
+        <c:axId val="493873520"/>
+        <c:axId val="493873912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475890928"/>
+        <c:axId val="493873520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,7 +9407,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475892496"/>
+        <c:crossAx val="493873912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9415,7 +9415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475892496"/>
+        <c:axId val="493873912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9456,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Tiempo (ms)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9522,7 +9522,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475890928"/>
+        <c:crossAx val="493873520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9950,8 +9950,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475897200"/>
-        <c:axId val="475894064"/>
+        <c:axId val="493861368"/>
+        <c:axId val="493861760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10083,7 +10083,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475897200"/>
+        <c:axId val="493861368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10126,7 +10126,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475894064"/>
+        <c:crossAx val="493861760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10134,7 +10134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475894064"/>
+        <c:axId val="493861760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10241,7 +10241,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475897200"/>
+        <c:crossAx val="493861368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10459,8 +10459,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475894848"/>
-        <c:axId val="475895240"/>
+        <c:axId val="493862544"/>
+        <c:axId val="493863328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -10842,7 +10842,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475894848"/>
+        <c:axId val="493862544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10885,7 +10885,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475895240"/>
+        <c:crossAx val="493863328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10893,7 +10893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475895240"/>
+        <c:axId val="493863328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11000,7 +11000,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475894848"/>
+        <c:crossAx val="493862544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11186,8 +11186,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475896416"/>
-        <c:axId val="475897592"/>
+        <c:axId val="488493624"/>
+        <c:axId val="488494800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11569,7 +11569,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475896416"/>
+        <c:axId val="488493624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11612,7 +11612,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475897592"/>
+        <c:crossAx val="488494800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11620,7 +11620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475897592"/>
+        <c:axId val="488494800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11727,7 +11727,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475896416"/>
+        <c:crossAx val="488493624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -11913,8 +11913,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="475903864"/>
-        <c:axId val="475905040"/>
+        <c:axId val="488495976"/>
+        <c:axId val="488488528"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -12296,7 +12296,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475903864"/>
+        <c:axId val="488495976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12339,7 +12339,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475905040"/>
+        <c:crossAx val="488488528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12347,7 +12347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475905040"/>
+        <c:axId val="488488528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12454,7 +12454,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475903864"/>
+        <c:crossAx val="488495976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -15717,8 +15717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47797,7 +47797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
